--- a/Energy Consumption7.xlsx
+++ b/Energy Consumption7.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.662980820059645</v>
+        <v>1.627606790236313</v>
       </c>
       <c r="C2" t="n">
-        <v>2.768631885889948</v>
+        <v>0.778006192578965</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.450223514586655</v>
+        <v>5.420210225960214</v>
       </c>
       <c r="C3" t="n">
-        <v>5.504511703074279</v>
+        <v>1.698254007829186</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.215291889059667</v>
+        <v>6.591740668470884</v>
       </c>
       <c r="C4" t="n">
-        <v>8.286034618339263</v>
+        <v>2.575414728183344</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.661689325122608</v>
+        <v>7.182610763386309</v>
       </c>
       <c r="C5" t="n">
-        <v>10.76958253822029</v>
+        <v>3.420968031547837</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.062945656343746</v>
+        <v>9.54894408440803</v>
       </c>
       <c r="C6" t="n">
-        <v>13.94823848244106</v>
+        <v>4.291343091848466</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.85162231344673</v>
+        <v>9.809062539082191</v>
       </c>
       <c r="C7" t="n">
-        <v>16.38733338694652</v>
+        <v>5.14912159066506</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.00333164218977</v>
+        <v>10.86023555894822</v>
       </c>
       <c r="C8" t="n">
-        <v>19.14631669468799</v>
+        <v>6.064601260393756</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.2400152992093</v>
+        <v>10.96363787363942</v>
       </c>
       <c r="C9" t="n">
-        <v>21.77210953700671</v>
+        <v>6.910068113998847</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.94275586222378</v>
+        <v>13.19122909797271</v>
       </c>
       <c r="C10" t="n">
-        <v>24.1865261336615</v>
+        <v>7.795044213838056</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.14103884382255</v>
+        <v>13.28426613040677</v>
       </c>
       <c r="C11" t="n">
-        <v>26.58198725426317</v>
+        <v>8.714102908051263</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>24.70550469223594</v>
+        <v>15.63808196947514</v>
       </c>
       <c r="C12" t="n">
-        <v>29.05796578990577</v>
+        <v>9.653178775928811</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>26.00600263777942</v>
+        <v>16.45199117475392</v>
       </c>
       <c r="C13" t="n">
-        <v>31.56575696714298</v>
+        <v>10.47085406642845</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>26.56052702642497</v>
+        <v>16.59506908415309</v>
       </c>
       <c r="C14" t="n">
-        <v>34.27459303983634</v>
+        <v>11.5321921106392</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>29.42840668867957</v>
+        <v>24.04242650802308</v>
       </c>
       <c r="C15" t="n">
-        <v>36.87581865580091</v>
+        <v>12.2707338107633</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>32.94825734813831</v>
+        <v>24.53452056476805</v>
       </c>
       <c r="C16" t="n">
-        <v>39.10474823503306</v>
+        <v>13.05911550679832</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>34.25192308240382</v>
+        <v>24.63242927057482</v>
       </c>
       <c r="C17" t="n">
-        <v>41.54602597477345</v>
+        <v>14.04347764877449</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>34.57681219988992</v>
+        <v>36.75854155028383</v>
       </c>
       <c r="C18" t="n">
-        <v>43.92036689665804</v>
+        <v>15.09413320731399</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>36.35752457518258</v>
+        <v>39.19492893040838</v>
       </c>
       <c r="C19" t="n">
-        <v>46.45783609332543</v>
+        <v>15.9175725765831</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>40.88151146822489</v>
+        <v>39.2373260793383</v>
       </c>
       <c r="C20" t="n">
-        <v>48.97843103501877</v>
+        <v>16.60216156144018</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>44.09499122909775</v>
+        <v>40.020837059205</v>
       </c>
       <c r="C21" t="n">
-        <v>51.36307042867299</v>
+        <v>17.38110114287156</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>45.98033202747985</v>
+        <v>42.32416030474977</v>
       </c>
       <c r="C22" t="n">
-        <v>53.91704251657088</v>
+        <v>18.30352728202346</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>46.25272723262053</v>
+        <v>42.40376079154596</v>
       </c>
       <c r="C23" t="n">
-        <v>56.15568676999361</v>
+        <v>19.2007761508452</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>49.2529832960333</v>
+        <v>43.48793803060114</v>
       </c>
       <c r="C24" t="n">
-        <v>58.70554377060845</v>
+        <v>20.01574244671098</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>51.40811382513787</v>
+        <v>43.66174884861912</v>
       </c>
       <c r="C25" t="n">
-        <v>61.36550151337139</v>
+        <v>21.01192659001715</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>52.67161552696957</v>
+        <v>46.81527741613953</v>
       </c>
       <c r="C26" t="n">
-        <v>63.80508081913867</v>
+        <v>21.88634908362241</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>54.08349696919414</v>
+        <v>48.53768042923998</v>
       </c>
       <c r="C27" t="n">
-        <v>66.39229195392601</v>
+        <v>22.66759313974137</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>55.78731505168545</v>
+        <v>48.74450444027331</v>
       </c>
       <c r="C28" t="n">
-        <v>68.78756291411079</v>
+        <v>23.79051347396079</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>59.19085421046887</v>
+        <v>49.30353739840233</v>
       </c>
       <c r="C29" t="n">
-        <v>71.15062530470925</v>
+        <v>24.52521177786977</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>59.6272808659903</v>
+        <v>49.35587207012214</v>
       </c>
       <c r="C30" t="n">
-        <v>73.60796806922821</v>
+        <v>25.42096518139907</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>60.86259574692849</v>
+        <v>53.9226453190363</v>
       </c>
       <c r="C31" t="n">
-        <v>76.5625035556039</v>
+        <v>26.34027674056534</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>64.86969678243952</v>
+        <v>54.95462682317561</v>
       </c>
       <c r="C32" t="n">
-        <v>78.76216101723939</v>
+        <v>27.15266366180861</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>66.79877148842296</v>
+        <v>54.97349058826109</v>
       </c>
       <c r="C33" t="n">
-        <v>81.83763939690319</v>
+        <v>27.98932613038466</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>71.23903811690397</v>
+        <v>55.00129252319459</v>
       </c>
       <c r="C34" t="n">
-        <v>84.32150795527058</v>
+        <v>28.96672671057427</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>72.27829505830573</v>
+        <v>57.16163754720429</v>
       </c>
       <c r="C35" t="n">
-        <v>86.98690906180805</v>
+        <v>29.93279202655354</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>73.67086543966576</v>
+        <v>61.07680374657252</v>
       </c>
       <c r="C36" t="n">
-        <v>89.52009820668212</v>
+        <v>30.76771385763023</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>76.41466720851911</v>
+        <v>64.06403161474454</v>
       </c>
       <c r="C37" t="n">
-        <v>91.86289094098935</v>
+        <v>31.54182208199699</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>79.05764198095947</v>
+        <v>67.64356679356021</v>
       </c>
       <c r="C38" t="n">
-        <v>94.67809196256452</v>
+        <v>32.28413884902747</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>82.53367885966266</v>
+        <v>67.70376005289809</v>
       </c>
       <c r="C39" t="n">
-        <v>97.14026794274308</v>
+        <v>33.07160212939309</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>84.07454827219789</v>
+        <v>68.71768602056122</v>
       </c>
       <c r="C40" t="n">
-        <v>99.73993432543138</v>
+        <v>34.03230933519956</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>86.47960306498706</v>
+        <v>68.80326782417994</v>
       </c>
       <c r="C41" t="n">
-        <v>102.5285229514805</v>
+        <v>34.98637856527873</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>87.69645632733932</v>
+        <v>77.93435391790203</v>
       </c>
       <c r="C42" t="n">
-        <v>105.0985392769607</v>
+        <v>35.88753197476004</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>89.73153412478513</v>
+        <v>78.05869032460444</v>
       </c>
       <c r="C43" t="n">
-        <v>107.6759017158274</v>
+        <v>36.77767494557679</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>90.42049538889771</v>
+        <v>82.21227588852798</v>
       </c>
       <c r="C44" t="n">
-        <v>110.2375279304394</v>
+        <v>37.62463906923904</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>91.25864454505265</v>
+        <v>89.07080627576225</v>
       </c>
       <c r="C45" t="n">
-        <v>113.0138901133336</v>
+        <v>38.48206823317634</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>92.22291571319511</v>
+        <v>95.33051411874965</v>
       </c>
       <c r="C46" t="n">
-        <v>116.3944362560153</v>
+        <v>39.26373160723004</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>93.53564335009844</v>
+        <v>95.40295807927988</v>
       </c>
       <c r="C47" t="n">
-        <v>118.8660034287117</v>
+        <v>40.13965404203887</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>94.9190565968352</v>
+        <v>96.39327355045396</v>
       </c>
       <c r="C48" t="n">
-        <v>121.5945343501978</v>
+        <v>40.86601089634311</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>98.01885121690246</v>
+        <v>96.45968427560688</v>
       </c>
       <c r="C49" t="n">
-        <v>124.8332044042139</v>
+        <v>41.80237025613934</v>
       </c>
     </row>
     <row r="50">
@@ -978,10 +978,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>98.12927493077511</v>
+        <v>96.52122777031076</v>
       </c>
       <c r="C50" t="n">
-        <v>127.3284892195564</v>
+        <v>42.74119348804561</v>
       </c>
     </row>
   </sheetData>
